--- a/File/RandomData_Excell.xlsx
+++ b/File/RandomData_Excell.xlsx
@@ -26,16 +26,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Brice</t>
+    <t>Irvin</t>
   </si>
   <si>
-    <t>Bailey</t>
+    <t>Block</t>
   </si>
   <si>
-    <t>nicola.rogahn@yahoo.com</t>
+    <t>murray.ryan@hotmail.com</t>
   </si>
   <si>
-    <t>np1uav5em4q9</t>
+    <t>bp9mh2kfq4w</t>
   </si>
 </sst>
 </file>

--- a/File/RandomData_Excell.xlsx
+++ b/File/RandomData_Excell.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>First Name</t>
   </si>
@@ -26,16 +26,22 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Irvin</t>
+    <t>newPassword</t>
   </si>
   <si>
-    <t>Block</t>
+    <t>Kaylene</t>
   </si>
   <si>
-    <t>murray.ryan@hotmail.com</t>
+    <t>Kessler</t>
   </si>
   <si>
-    <t>bp9mh2kfq4w</t>
+    <t>buddy.kirlin@hotmail.com</t>
+  </si>
+  <si>
+    <t>gmarvwsu5u0d9k</t>
+  </si>
+  <si>
+    <t>q1z2p1p5r93vc</t>
   </si>
 </sst>
 </file>
@@ -80,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,19 +105,25 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/File/RandomData_Excell.xlsx
+++ b/File/RandomData_Excell.xlsx
@@ -29,19 +29,19 @@
     <t>newPassword</t>
   </si>
   <si>
-    <t>Kaylene</t>
+    <t>Mitch</t>
   </si>
   <si>
-    <t>Kessler</t>
+    <t>Satterfield</t>
   </si>
   <si>
-    <t>buddy.kirlin@hotmail.com</t>
+    <t>valarie.kuhlman@hotmail.com</t>
   </si>
   <si>
-    <t>gmarvwsu5u0d9k</t>
+    <t>3wevlvy0pe6</t>
   </si>
   <si>
-    <t>q1z2p1p5r93vc</t>
+    <t>ebyt3z7czt</t>
   </si>
 </sst>
 </file>

--- a/File/RandomData_Excell.xlsx
+++ b/File/RandomData_Excell.xlsx
@@ -29,19 +29,19 @@
     <t>newPassword</t>
   </si>
   <si>
-    <t>Mitch</t>
+    <t>Horacio</t>
   </si>
   <si>
-    <t>Satterfield</t>
+    <t>O'Keefe</t>
   </si>
   <si>
-    <t>valarie.kuhlman@hotmail.com</t>
+    <t>noah.zieme@hotmail.com</t>
   </si>
   <si>
-    <t>3wevlvy0pe6</t>
+    <t>73qo8kwc3cs</t>
   </si>
   <si>
-    <t>ebyt3z7czt</t>
+    <t>61kpfhpj</t>
   </si>
 </sst>
 </file>

--- a/File/RandomData_Excell.xlsx
+++ b/File/RandomData_Excell.xlsx
@@ -29,19 +29,19 @@
     <t>newPassword</t>
   </si>
   <si>
-    <t>Horacio</t>
+    <t>Markus</t>
   </si>
   <si>
-    <t>O'Keefe</t>
+    <t>Kunze</t>
   </si>
   <si>
-    <t>noah.zieme@hotmail.com</t>
+    <t>delfina.breitenberg@yahoo.com</t>
   </si>
   <si>
-    <t>73qo8kwc3cs</t>
+    <t>sxt2c8kp7</t>
   </si>
   <si>
-    <t>61kpfhpj</t>
+    <t>65pp5okdvo</t>
   </si>
 </sst>
 </file>

--- a/File/RandomData_Excell.xlsx
+++ b/File/RandomData_Excell.xlsx
@@ -29,19 +29,19 @@
     <t>newPassword</t>
   </si>
   <si>
-    <t>Markus</t>
+    <t>Marlon</t>
   </si>
   <si>
-    <t>Kunze</t>
+    <t>Steuber</t>
   </si>
   <si>
-    <t>delfina.breitenberg@yahoo.com</t>
+    <t>whitney.durgan@hotmail.com</t>
   </si>
   <si>
-    <t>sxt2c8kp7</t>
+    <t>otvkd3zz88</t>
   </si>
   <si>
-    <t>65pp5okdvo</t>
+    <t>74pkwp4a</t>
   </si>
 </sst>
 </file>
